--- a/downloads/be_eo_data_template.xlsx
+++ b/downloads/be_eo_data_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Desktop\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22680" windowHeight="9675" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="be_eo_data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>№пп</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>ZyatikovMN@polyus.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата ввода в экспл.(полностью включая день) </t>
+  </si>
+  <si>
+    <t>22.02.2011</t>
+  </si>
+  <si>
+    <t>09.04.2011</t>
+  </si>
+  <si>
+    <t>30.04.2012</t>
   </si>
 </sst>
 </file>
@@ -128,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -143,6 +155,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -465,18 +480,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +502,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3323</v>
       </c>
@@ -497,8 +516,11 @@
       <c r="C2" s="4">
         <v>22</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3324</v>
       </c>
@@ -508,8 +530,11 @@
       <c r="C3" s="4">
         <v>24</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3325</v>
       </c>
@@ -518,6 +543,9 @@
       </c>
       <c r="C4" s="4">
         <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -534,6 +562,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -541,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/downloads/be_eo_data_template.xlsx
+++ b/downloads/be_eo_data_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="be_eo_data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>№пп</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>30.04.2012</t>
+  </si>
+  <si>
+    <t>Плановая дата вывода из эксплуат</t>
+  </si>
+  <si>
+    <t>Статус эксплуатации</t>
+  </si>
+  <si>
+    <t>Дата статуса эксплуатации</t>
+  </si>
+  <si>
+    <t>Эксплуатация</t>
   </si>
 </sst>
 </file>
@@ -112,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,12 +147,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,6 +179,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,19 +511,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +540,17 @@
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3323</v>
       </c>
@@ -516,11 +560,20 @@
       <c r="C2" s="4">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="9">
+        <v>48214</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9">
+        <v>44713</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3324</v>
       </c>
@@ -530,11 +583,20 @@
       <c r="C3" s="4">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="9">
+        <v>48214</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9">
+        <v>44713</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3325</v>
       </c>
@@ -544,15 +606,24 @@
       <c r="C4" s="4">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" s="9">
+        <v>48214</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9">
+        <v>44713</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="C1 F1:G1">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">

--- a/downloads/be_eo_data_template.xlsx
+++ b/downloads/be_eo_data_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>№пп</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Эксплуатация</t>
+  </si>
+  <si>
+    <t>be_filename</t>
+  </si>
+  <si>
+    <t>be_sender_email</t>
+  </si>
+  <si>
+    <t>be_e-mail_date</t>
   </si>
 </sst>
 </file>
@@ -110,7 +119,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -188,6 +203,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -511,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,9 +543,12 @@
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="49" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +570,17 @@
       <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="H1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3323</v>
       </c>
@@ -572,8 +602,17 @@
       <c r="G2" s="9">
         <v>44713</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="9">
+        <v>44718</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3324</v>
       </c>
@@ -595,8 +634,17 @@
       <c r="G3" s="9">
         <v>44713</v>
       </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="9">
+        <v>44718</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3325</v>
       </c>
@@ -617,6 +665,15 @@
       </c>
       <c r="G4" s="9">
         <v>44713</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9">
+        <v>44718</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +699,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,5 +733,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/downloads/be_eo_data_template.xlsx
+++ b/downloads/be_eo_data_template.xlsx
@@ -81,7 +81,7 @@
     <t>be_sender_email</t>
   </si>
   <si>
-    <t>be_e-mail_date</t>
+    <t>be_email_date</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/downloads/be_eo_data_template.xlsx
+++ b/downloads/be_eo_data_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Desktop\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="be_eo_data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>№пп</t>
   </si>
@@ -73,15 +73,6 @@
   </si>
   <si>
     <t>Эксплуатация</t>
-  </si>
-  <si>
-    <t>be_filename</t>
-  </si>
-  <si>
-    <t>be_sender_email</t>
-  </si>
-  <si>
-    <t>be_email_date</t>
   </si>
 </sst>
 </file>
@@ -119,7 +110,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,12 +120,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,9 +188,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -529,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,12 +525,9 @@
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,17 +549,8 @@
       <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3323</v>
       </c>
@@ -602,17 +572,8 @@
       <c r="G2" s="9">
         <v>44713</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="9">
-        <v>44718</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3324</v>
       </c>
@@ -634,17 +595,8 @@
       <c r="G3" s="9">
         <v>44713</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="9">
-        <v>44718</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3325</v>
       </c>
@@ -665,15 +617,6 @@
       </c>
       <c r="G4" s="9">
         <v>44713</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="9">
-        <v>44718</v>
       </c>
     </row>
   </sheetData>
